--- a/03-pandas/data/mi_df_colores.xlsx
+++ b/03-pandas/data/mi_df_colores.xlsx
@@ -419,16 +419,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B4">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="percentile" val="10"/>
-        <cfvo type="percentile" val=""/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>